--- a/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
+++ b/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2194,9 +2194,21 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2256,7 +2268,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2293,11 +2305,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
@@ -2307,7 +2315,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2358,7 +2366,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2370,7 +2378,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2409,7 +2417,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>PICK #847 +FC-RX, WEST ALLIS-MARKET SQ</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2421,7 +2429,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2460,14 +2468,26 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>6760 W NATIONAL AVE</t>
+          <t>PICK #847 +FC-RX, WEST ALLIS-MARKET SQ</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2503,7 +2523,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/G4vnZ7jFLF1ooLXD8</t>
+          <t>6760 W NATIONAL AVE</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2540,15 +2560,15 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/G4vnZ7jFLF1ooLXD8</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2590,26 +2610,14 @@
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2656,20 +2664,24 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2711,12 +2723,12 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2724,7 +2736,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2758,12 +2770,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2771,7 +2783,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>760 W JOHNSON STREET</t>
+          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2833,12 +2845,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2846,7 +2858,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+          <t>760 W JOHNSON STREET</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2900,12 +2912,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2913,7 +2925,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>SET UP ON REG #6</t>
+          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2959,18 +2971,22 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #6</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3006,31 +3022,19 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -3069,33 +3073,29 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Jeri</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3137,12 +3137,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Jeri</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3153,15 +3153,19 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3196,37 +3200,31 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3261,32 +3259,37 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Joshua M</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3321,35 +3324,32 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3384,12 +3384,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3400,18 +3400,17 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3437,7 +3436,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3448,12 +3447,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3464,15 +3463,20 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3496,28 +3500,39 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3544,12 +3559,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3559,12 +3575,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3591,7 +3607,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3601,28 +3617,20 @@
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3639,29 +3647,45 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3683,24 +3707,24 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3718,11 +3742,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3731,12 +3751,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3763,7 +3783,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3774,12 +3794,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3806,7 +3826,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3817,12 +3837,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3849,7 +3869,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
+          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3860,12 +3880,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3892,7 +3912,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
+          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3903,12 +3923,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3935,7 +3955,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
+          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3946,12 +3966,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -3978,7 +3998,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>MEET AT THE MAIN ENTRANCE</t>
+          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3987,9 +4007,21 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4007,7 +4039,11 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>MEET AT THE MAIN ENTRANCE</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4033,21 +4069,9 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4074,15 +4098,19 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4109,12 +4137,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4133,6 +4161,41 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
+++ b/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,11 +678,19 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>DJ using Optima</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>DJ using Optima still possibly</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1514,10 +1522,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1581,7 +1593,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1660,12 +1672,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1731,13 +1744,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1804,7 +1816,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1880,12 +1892,13 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1955,13 +1968,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2032,7 +2044,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2107,7 +2119,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2162,7 +2174,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2217,7 +2229,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2268,7 +2280,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2315,7 +2327,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2378,7 +2390,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2429,7 +2441,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2473,21 +2485,9 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2568,7 +2568,11 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2617,7 +2621,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2681,7 +2685,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2736,7 +2740,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2763,10 +2767,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2783,7 +2791,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
+          <t>760 W JOHNSON STREET</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2834,7 +2842,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2858,7 +2866,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>760 W JOHNSON STREET</t>
+          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2901,7 +2909,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2925,7 +2933,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+          <t>SET UP ON REG #6</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2960,7 +2968,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2982,11 +2990,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #6</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3011,7 +3015,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3032,9 +3036,21 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -3062,12 +3078,13 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3085,17 +3102,17 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3125,13 +3142,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3153,19 +3169,15 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3189,7 +3201,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3216,15 +3228,20 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3248,7 +3265,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3276,20 +3293,15 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3313,7 +3325,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3341,15 +3353,19 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Joshua M</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3373,7 +3389,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3400,17 +3416,18 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Driver,
+Sante Fe</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3436,7 +3453,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3463,20 +3480,15 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3500,12 +3512,13 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3527,12 +3540,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3559,13 +3572,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3575,12 +3587,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3607,7 +3619,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3622,15 +3634,19 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3647,21 +3663,9 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3673,19 +3677,15 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3716,15 +3716,19 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store, work w/ Taya</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3742,7 +3746,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3751,12 +3759,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3783,7 +3791,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3794,12 +3802,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3826,7 +3834,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3837,12 +3845,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3869,7 +3877,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
+          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3880,12 +3888,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3912,7 +3920,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
+          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3923,12 +3931,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3955,7 +3963,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
+          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3966,17 +3974,17 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, 1st DC5 Scan, work w/ Katie</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -3998,7 +4006,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
+          <t>MEET AT THE MAIN ENTRANCE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4007,21 +4015,9 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4039,11 +4035,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>MEET AT THE MAIN ENTRANCE</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4069,9 +4061,21 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4098,19 +4102,15 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4137,12 +4137,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4161,41 +4161,6 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
+++ b/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,12 +2229,13 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Day</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2280,7 +2281,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2327,12 +2328,13 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2390,7 +2392,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2441,7 +2443,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2485,9 +2487,21 @@
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2568,11 +2582,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
@@ -2621,7 +2631,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2685,7 +2695,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2740,7 +2750,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2791,7 +2801,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>760 W JOHNSON STREET</t>
+          <t>PICK #389 +RX, FOND DU LAC-JOHNSON</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2866,7 +2876,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
+          <t>760 W JOHNSON STREET</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2933,7 +2943,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>SET UP ON REG #6</t>
+          <t>https://goo.gl/maps/FQxMHMwbo2S2</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2990,7 +3000,11 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #6</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -3036,21 +3050,9 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -3102,17 +3104,17 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3169,15 +3171,19 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3228,20 +3234,15 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3293,15 +3294,20 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Joshua M</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3353,19 +3359,15 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3389,12 +3391,13 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Day</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -3416,18 +3419,17 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3453,7 +3455,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3480,15 +3482,20 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3512,13 +3519,13 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3540,12 +3547,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3572,12 +3579,13 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3587,12 +3595,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3619,7 +3627,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3634,19 +3642,15 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3663,9 +3667,21 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3677,15 +3693,19 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3716,19 +3736,15 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Katie</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store, work w/ Taya</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3746,11 +3762,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3759,17 +3771,17 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, work w/ Taya</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3791,7 +3803,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3802,12 +3814,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3834,7 +3846,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3845,12 +3857,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3877,7 +3889,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
+          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3888,12 +3900,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3920,7 +3932,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
+          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3931,12 +3943,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3963,7 +3975,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
+          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3974,17 +3986,17 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>@ Store, 1st DC5 Scan, work w/ Katie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -4006,7 +4018,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>MEET AT THE MAIN ENTRANCE</t>
+          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4015,9 +4027,21 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store, 1st DC5 Scan, work w/ Katie</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4035,7 +4059,11 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>MEET AT THE MAIN ENTRANCE</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4061,21 +4089,9 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -4102,15 +4118,19 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -4137,12 +4157,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4161,6 +4181,41 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
+++ b/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
@@ -2197,7 +2197,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
+          <t>REMINDER PRICE FILE NEEDED FOR THIS ORG SITE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>REMINDER DIFFERENT SCANNER SETUP NEEDED FOR THIS ORG SITE</t>
+          <t>REMINDER PRICE FILE NEEDED FOR THIS ORG SITE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>

--- a/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
+++ b/07-14-24 to 07-20-24 Milwaukee Schedule Copy.xlsx
@@ -2028,7 +2028,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3529,21 +3529,9 @@
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3637,7 +3625,11 @@
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
@@ -3686,7 +3678,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3727,11 +3719,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
